--- a/Top taxa.xlsx
+++ b/Top taxa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="330">
   <si>
     <t>MSW05_Order</t>
   </si>
@@ -199,10 +199,25 @@
     <t>Shai total num</t>
   </si>
   <si>
+    <t>Log loge trophic num</t>
+  </si>
+  <si>
+    <t>Log log trophic num</t>
+  </si>
+  <si>
+    <t>Shai total trophic num</t>
+  </si>
+  <si>
     <t>Log log total mass</t>
   </si>
   <si>
     <t>Shai total mass</t>
+  </si>
+  <si>
+    <t>Log log trophic mass</t>
+  </si>
+  <si>
+    <t>Shai total trophic mass</t>
   </si>
   <si>
     <t>Carnivora</t>
@@ -1346,13 +1361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL64"/>
+  <dimension ref="A1:BQ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:69">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,25 +1557,40 @@
       <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:69">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1653,7 +1683,7 @@
         <v>-999</v>
       </c>
       <c r="AK2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL2">
         <v>-999</v>
@@ -1722,7 +1752,7 @@
         <v>27116612002793.7</v>
       </c>
       <c r="BH2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="BI2">
         <v>124060142.1722864</v>
@@ -1730,31 +1760,37 @@
       <c r="BJ2">
         <v>2656164.468954077</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
+        <v>8301426.379276749</v>
+      </c>
+      <c r="BN2">
         <v>1198259695199.463</v>
       </c>
-      <c r="BL2">
+      <c r="BO2">
         <v>25655095756.28675</v>
       </c>
+      <c r="BQ2">
+        <v>80180986969.52034</v>
+      </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:69">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1847,7 +1883,7 @@
         <v>-999</v>
       </c>
       <c r="AK3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AL3">
         <v>-999</v>
@@ -1916,7 +1952,7 @@
         <v>17098504203572.8</v>
       </c>
       <c r="BH3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="BI3">
         <v>65493100.16446053</v>
@@ -1925,30 +1961,45 @@
         <v>1691618.937687529</v>
       </c>
       <c r="BK3">
+        <v>3167760.571173902</v>
+      </c>
+      <c r="BL3">
+        <v>3167760.571173902</v>
+      </c>
+      <c r="BM3">
+        <v>162173.8374667011</v>
+      </c>
+      <c r="BN3">
         <v>785203327181.7338</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>20280988605.82956</v>
       </c>
+      <c r="BP3">
+        <v>37978598263.86103</v>
+      </c>
+      <c r="BQ3">
+        <v>1944318354.772026</v>
+      </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:69">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2041,7 +2092,7 @@
         <v>-999</v>
       </c>
       <c r="AK4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AL4">
         <v>-999</v>
@@ -2110,7 +2161,7 @@
         <v>51561288392789.9</v>
       </c>
       <c r="BH4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="BI4">
         <v>88678272.76285909</v>
@@ -2119,30 +2170,45 @@
         <v>2259565.724934889</v>
       </c>
       <c r="BK4">
+        <v>3089226.602069499</v>
+      </c>
+      <c r="BL4">
+        <v>3089226.602069499</v>
+      </c>
+      <c r="BM4">
+        <v>162001.4603913072</v>
+      </c>
+      <c r="BN4">
         <v>2816112455776.462</v>
       </c>
-      <c r="BL4">
+      <c r="BO4">
         <v>71755921539.55203</v>
       </c>
+      <c r="BP4">
+        <v>98103055480.88605</v>
+      </c>
+      <c r="BQ4">
+        <v>5144600996.931152</v>
+      </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:69">
       <c r="A5" s="1">
         <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2235,7 +2301,7 @@
         <v>-999</v>
       </c>
       <c r="AK5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AL5">
         <v>-999</v>
@@ -2304,7 +2370,7 @@
         <v>6162598452237.11</v>
       </c>
       <c r="BH5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BI5">
         <v>6114766.837965209</v>
@@ -2312,31 +2378,37 @@
       <c r="BJ5">
         <v>336151.867817291</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
+        <v>416577.4126159196</v>
+      </c>
+      <c r="BN5">
         <v>379155901414.9735</v>
       </c>
-      <c r="BL5">
+      <c r="BO5">
         <v>20843634406.99963</v>
       </c>
+      <c r="BQ5">
+        <v>25830548993.11028</v>
+      </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:69">
       <c r="A6" s="1">
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2429,7 +2501,7 @@
         <v>-999</v>
       </c>
       <c r="AK6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AL6">
         <v>-999</v>
@@ -2498,7 +2570,7 @@
         <v>9768292190224.221</v>
       </c>
       <c r="BH6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BI6">
         <v>499651.7846197988</v>
@@ -2507,30 +2579,45 @@
         <v>69544.58302692733</v>
       </c>
       <c r="BK6">
+        <v>1450061.70575297</v>
+      </c>
+      <c r="BL6">
+        <v>1450061.70575297</v>
+      </c>
+      <c r="BM6">
+        <v>167754.7240075426</v>
+      </c>
+      <c r="BN6">
         <v>1142173715732.266</v>
       </c>
-      <c r="BL6">
+      <c r="BO6">
         <v>158974704484.162</v>
       </c>
+      <c r="BP6">
+        <v>3314753229113.772</v>
+      </c>
+      <c r="BQ6">
+        <v>383477138177.6093</v>
+      </c>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:69">
       <c r="A7" s="1">
         <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2623,7 +2710,7 @@
         <v>-999</v>
       </c>
       <c r="AK7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AL7">
         <v>-999</v>
@@ -2692,7 +2779,7 @@
         <v>3694867676326.96</v>
       </c>
       <c r="BH7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="BI7">
         <v>1201649.343492676</v>
@@ -2701,30 +2788,45 @@
         <v>112721.0678545605</v>
       </c>
       <c r="BK7">
+        <v>3219257.820701605</v>
+      </c>
+      <c r="BL7">
+        <v>3219257.820701605</v>
+      </c>
+      <c r="BM7">
+        <v>273573.1677371642</v>
+      </c>
+      <c r="BN7">
         <v>289437828633.4651</v>
       </c>
-      <c r="BL7">
+      <c r="BO7">
         <v>27150800104.66324</v>
       </c>
+      <c r="BP7">
+        <v>775413392002.4501</v>
+      </c>
+      <c r="BQ7">
+        <v>65894783757.85933</v>
+      </c>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:69">
       <c r="A8" s="1">
         <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G8">
         <v>-999</v>
@@ -2817,7 +2919,7 @@
         <v>-999</v>
       </c>
       <c r="AK8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AL8">
         <v>-999</v>
@@ -2886,7 +2988,7 @@
         <v>2314214441944.38</v>
       </c>
       <c r="BH8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="BI8">
         <v>496032.6761941781</v>
@@ -2895,30 +2997,45 @@
         <v>61224.15956838601</v>
       </c>
       <c r="BK8">
+        <v>7359.973921997958</v>
+      </c>
+      <c r="BL8">
+        <v>7359.973921997958</v>
+      </c>
+      <c r="BM8">
+        <v>1594.694035996421</v>
+      </c>
+      <c r="BN8">
         <v>198413070477.6712</v>
       </c>
-      <c r="BL8">
+      <c r="BO8">
         <v>24489663827.3544</v>
       </c>
+      <c r="BP8">
+        <v>2943989568.799183</v>
+      </c>
+      <c r="BQ8">
+        <v>637877614.3985683</v>
+      </c>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:69">
       <c r="A9" s="1">
         <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3011,7 +3128,7 @@
         <v>-999</v>
       </c>
       <c r="AK9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AL9">
         <v>-999</v>
@@ -3080,7 +3197,7 @@
         <v>4234153348939.04</v>
       </c>
       <c r="BH9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BI9">
         <v>2574307.45296492</v>
@@ -3089,30 +3206,45 @@
         <v>186376.374427445</v>
       </c>
       <c r="BK9">
+        <v>6712553.484247331</v>
+      </c>
+      <c r="BL9">
+        <v>6712553.484247331</v>
+      </c>
+      <c r="BM9">
+        <v>461782.0437310123</v>
+      </c>
+      <c r="BN9">
         <v>289657290375.6569</v>
       </c>
-      <c r="BL9">
+      <c r="BO9">
         <v>20970795677.3057</v>
       </c>
+      <c r="BP9">
+        <v>755286650593.8878</v>
+      </c>
+      <c r="BQ9">
+        <v>51959036741.00922</v>
+      </c>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:69">
       <c r="A10" s="1">
         <v>393</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G10">
         <v>-999</v>
@@ -3205,7 +3337,7 @@
         <v>-999</v>
       </c>
       <c r="AK10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AL10">
         <v>-999</v>
@@ -3274,7 +3406,7 @@
         <v>7899208778826.86</v>
       </c>
       <c r="BH10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BI10">
         <v>799900.0590700896</v>
@@ -3283,30 +3415,45 @@
         <v>92506.51388154185</v>
       </c>
       <c r="BK10">
+        <v>2253864.376531496</v>
+      </c>
+      <c r="BL10">
+        <v>2253864.376531496</v>
+      </c>
+      <c r="BM10">
+        <v>224962.9458120476</v>
+      </c>
+      <c r="BN10">
         <v>796652896776.297</v>
       </c>
-      <c r="BL10">
+      <c r="BO10">
         <v>92130987388.70029</v>
       </c>
+      <c r="BP10">
+        <v>2244714904249.542</v>
+      </c>
+      <c r="BQ10">
+        <v>224049717732.0414</v>
+      </c>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:69">
       <c r="A11" s="1">
         <v>426</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3399,7 +3546,7 @@
         <v>-999</v>
       </c>
       <c r="AK11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AL11">
         <v>-999</v>
@@ -3468,7 +3615,7 @@
         <v>620727376006.2939</v>
       </c>
       <c r="BH11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="BI11">
         <v>23657.29577813561</v>
@@ -3477,30 +3624,45 @@
         <v>7693.462206107983</v>
       </c>
       <c r="BK11">
+        <v>69536.10311201563</v>
+      </c>
+      <c r="BL11">
+        <v>69536.10311201563</v>
+      </c>
+      <c r="BM11">
+        <v>16502.41300180912</v>
+      </c>
+      <c r="BN11">
         <v>77354491835.0537</v>
       </c>
-      <c r="BL11">
+      <c r="BO11">
         <v>25156039176.53579</v>
       </c>
+      <c r="BP11">
+        <v>227368756381.3251</v>
+      </c>
+      <c r="BQ11">
+        <v>53959496629.65788</v>
+      </c>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" spans="1:69">
       <c r="A12" s="1">
         <v>632</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3593,7 +3755,7 @@
         <v>-999</v>
       </c>
       <c r="AK12" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AL12">
         <v>-999</v>
@@ -3662,7 +3824,7 @@
         <v>11998106170147.6</v>
       </c>
       <c r="BH12" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="BI12">
         <v>16603066.7725094</v>
@@ -3671,30 +3833,45 @@
         <v>677490.5077227568</v>
       </c>
       <c r="BK12">
+        <v>529082.4059005883</v>
+      </c>
+      <c r="BL12">
+        <v>529082.4059005883</v>
+      </c>
+      <c r="BM12">
+        <v>41620.89674772359</v>
+      </c>
+      <c r="BN12">
         <v>686885973537.4896</v>
       </c>
-      <c r="BL12">
+      <c r="BO12">
         <v>28028480119.7134</v>
       </c>
+      <c r="BP12">
+        <v>21888684086.98541</v>
+      </c>
+      <c r="BQ12">
+        <v>1721899367.976975</v>
+      </c>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:69">
       <c r="A13" s="1">
         <v>641</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3787,7 +3964,7 @@
         <v>-999</v>
       </c>
       <c r="AK13" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AL13">
         <v>-999</v>
@@ -3856,7 +4033,7 @@
         <v>17204940118472.7</v>
       </c>
       <c r="BH13" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="BI13">
         <v>66012688.78399201</v>
@@ -3865,30 +4042,45 @@
         <v>1701159.386089936</v>
       </c>
       <c r="BK13">
+        <v>3195112.944717513</v>
+      </c>
+      <c r="BL13">
+        <v>3195112.944717513</v>
+      </c>
+      <c r="BM13">
+        <v>163248.8734802919</v>
+      </c>
+      <c r="BN13">
         <v>789800893433.4182</v>
       </c>
-      <c r="BL13">
+      <c r="BO13">
         <v>20353317335.7467</v>
       </c>
+      <c r="BP13">
+        <v>38227545413.51932</v>
+      </c>
+      <c r="BQ13">
+        <v>1953171556.890135</v>
+      </c>
     </row>
-    <row r="14" spans="1:64">
+    <row r="14" spans="1:69">
       <c r="A14" s="1">
         <v>656</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -3981,7 +4173,7 @@
         <v>-999</v>
       </c>
       <c r="AK14" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AL14">
         <v>-999</v>
@@ -4050,7 +4242,7 @@
         <v>15707995553931.2</v>
       </c>
       <c r="BH14" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="BI14">
         <v>42837869.35145386</v>
@@ -4059,30 +4251,45 @@
         <v>1277286.454453144</v>
       </c>
       <c r="BK14">
+        <v>104680722.1367869</v>
+      </c>
+      <c r="BL14">
+        <v>104680722.1367869</v>
+      </c>
+      <c r="BM14">
+        <v>3459137.773094709</v>
+      </c>
+      <c r="BN14">
         <v>776411107652.184</v>
       </c>
-      <c r="BL14">
+      <c r="BO14">
         <v>23150063387.95511</v>
       </c>
+      <c r="BP14">
+        <v>1897276327103.201</v>
+      </c>
+      <c r="BQ14">
+        <v>62694831246.05548</v>
+      </c>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:69">
       <c r="A15" s="1">
         <v>759</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4175,7 +4382,7 @@
         <v>-999</v>
       </c>
       <c r="AK15" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AL15">
         <v>-999</v>
@@ -4244,7 +4451,7 @@
         <v>15260298131730</v>
       </c>
       <c r="BH15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="BI15">
         <v>58107828.05079973</v>
@@ -4252,31 +4459,37 @@
       <c r="BJ15">
         <v>1550921.311100285</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
+        <v>4070557.43311851</v>
+      </c>
+      <c r="BN15">
         <v>701685726253.6763</v>
       </c>
-      <c r="BL15">
+      <c r="BO15">
         <v>18728274365.89638</v>
       </c>
+      <c r="BQ15">
+        <v>49154341928.21721</v>
+      </c>
     </row>
-    <row r="16" spans="1:64">
+    <row r="16" spans="1:69">
       <c r="A16" s="1">
         <v>823</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4369,7 +4582,7 @@
         <v>-999</v>
       </c>
       <c r="AK16" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AL16">
         <v>-999</v>
@@ -4438,7 +4651,7 @@
         <v>3103291988557.37</v>
       </c>
       <c r="BH16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="BI16">
         <v>1182628.464763117</v>
@@ -4447,30 +4660,45 @@
         <v>109920.5063034067</v>
       </c>
       <c r="BK16">
+        <v>3146653.808423747</v>
+      </c>
+      <c r="BL16">
+        <v>3146653.808423747</v>
+      </c>
+      <c r="BM16">
+        <v>265944.6023061791</v>
+      </c>
+      <c r="BN16">
         <v>234893287230.1416</v>
       </c>
-      <c r="BL16">
+      <c r="BO16">
         <v>21832375787.42063</v>
       </c>
+      <c r="BP16">
+        <v>624987372499.906</v>
+      </c>
+      <c r="BQ16">
+        <v>52821831807.78055</v>
+      </c>
     </row>
-    <row r="17" spans="1:64">
+    <row r="17" spans="1:69">
       <c r="A17" s="1">
         <v>870</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4563,7 +4791,7 @@
         <v>-999</v>
       </c>
       <c r="AK17" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AL17">
         <v>-999</v>
@@ -4632,7 +4860,7 @@
         <v>14474893403445.7</v>
       </c>
       <c r="BH17" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="BI17">
         <v>14108052.90429626</v>
@@ -4641,30 +4869,45 @@
         <v>619799.085352127</v>
       </c>
       <c r="BK17">
+        <v>389414.8463024081</v>
+      </c>
+      <c r="BL17">
+        <v>389414.8463024081</v>
+      </c>
+      <c r="BM17">
+        <v>33105.77760685681</v>
+      </c>
+      <c r="BN17">
         <v>894027030384.1962</v>
       </c>
-      <c r="BL17">
+      <c r="BO17">
         <v>39276655642.78258</v>
       </c>
+      <c r="BP17">
+        <v>24677211021.88668</v>
+      </c>
+      <c r="BQ17">
+        <v>2097912464.830964</v>
+      </c>
     </row>
-    <row r="18" spans="1:64">
+    <row r="18" spans="1:69">
       <c r="A18" s="1">
         <v>1221</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -4757,7 +5000,7 @@
         <v>-999</v>
       </c>
       <c r="AK18" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AL18">
         <v>-999</v>
@@ -4826,7 +5069,7 @@
         <v>24394376489522.9</v>
       </c>
       <c r="BH18" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="BI18">
         <v>88587539.90067826</v>
@@ -4835,30 +5078,45 @@
         <v>2118533.332823549</v>
       </c>
       <c r="BK18">
+        <v>4192175.667213735</v>
+      </c>
+      <c r="BL18">
+        <v>4192175.667213735</v>
+      </c>
+      <c r="BM18">
+        <v>201639.3759614406</v>
+      </c>
+      <c r="BN18">
         <v>1133255218304.028</v>
       </c>
-      <c r="BL18">
+      <c r="BO18">
         <v>27101316474.81193</v>
       </c>
+      <c r="BP18">
+        <v>53628365301.07503</v>
+      </c>
+      <c r="BQ18">
+        <v>2579469700.592968</v>
+      </c>
     </row>
-    <row r="19" spans="1:64">
+    <row r="19" spans="1:69">
       <c r="A19" s="1">
         <v>1257</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4951,7 +5209,7 @@
         <v>-999</v>
       </c>
       <c r="AK19" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AL19">
         <v>-999</v>
@@ -5020,7 +5278,7 @@
         <v>29179663482988</v>
       </c>
       <c r="BH19" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="BI19">
         <v>246824716.2311496</v>
@@ -5029,30 +5287,45 @@
         <v>4164836.341168383</v>
       </c>
       <c r="BK19">
+        <v>16518260.16580002</v>
+      </c>
+      <c r="BL19">
+        <v>16518260.16580002</v>
+      </c>
+      <c r="BM19">
+        <v>570826.2536160308</v>
+      </c>
+      <c r="BN19">
         <v>1128749173302.346</v>
       </c>
-      <c r="BL19">
+      <c r="BO19">
         <v>19046129775.07031</v>
       </c>
+      <c r="BP19">
+        <v>75539325199.01674</v>
+      </c>
+      <c r="BQ19">
+        <v>2610434123.886398</v>
+      </c>
     </row>
-    <row r="20" spans="1:64">
+    <row r="20" spans="1:69">
       <c r="A20" s="1">
         <v>1299</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -5145,7 +5418,7 @@
         <v>-999</v>
       </c>
       <c r="AK20" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AL20">
         <v>-999</v>
@@ -5214,7 +5487,7 @@
         <v>1821654575118.61</v>
       </c>
       <c r="BH20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="BI20">
         <v>189370.5012026952</v>
@@ -5223,30 +5496,45 @@
         <v>32242.08325483738</v>
       </c>
       <c r="BK20">
+        <v>532980.8731499148</v>
+      </c>
+      <c r="BL20">
+        <v>532980.8731499148</v>
+      </c>
+      <c r="BM20">
+        <v>73986.80923136414</v>
+      </c>
+      <c r="BN20">
         <v>182677149707.6507</v>
       </c>
-      <c r="BL20">
+      <c r="BO20">
         <v>31102478116.83267</v>
       </c>
+      <c r="BP20">
+        <v>514142520283.5953</v>
+      </c>
+      <c r="BQ20">
+        <v>71371725482.64308</v>
+      </c>
     </row>
-    <row r="21" spans="1:64">
+    <row r="21" spans="1:69">
       <c r="A21" s="1">
         <v>1393</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -5339,7 +5627,7 @@
         <v>-999</v>
       </c>
       <c r="AK21" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AL21">
         <v>-999</v>
@@ -5408,7 +5696,7 @@
         <v>1233077313288.71</v>
       </c>
       <c r="BH21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="BI21">
         <v>87438.88153090289</v>
@@ -5416,31 +5704,37 @@
       <c r="BJ21">
         <v>18949.12104815252</v>
       </c>
-      <c r="BK21">
+      <c r="BM21">
+        <v>5535.416452140654</v>
+      </c>
+      <c r="BN21">
         <v>134333263060.294</v>
       </c>
-      <c r="BL21">
+      <c r="BO21">
         <v>29111731737.13561</v>
       </c>
+      <c r="BQ21">
+        <v>8504117863.754788</v>
+      </c>
     </row>
-    <row r="22" spans="1:64">
+    <row r="22" spans="1:69">
       <c r="A22" s="1">
         <v>1461</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -5533,7 +5827,7 @@
         <v>-999</v>
       </c>
       <c r="AK22" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AL22">
         <v>-999</v>
@@ -5602,7 +5896,7 @@
         <v>5571097586104.12</v>
       </c>
       <c r="BH22" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="BI22">
         <v>1679373.054295957</v>
@@ -5611,30 +5905,45 @@
         <v>144855.5220690662</v>
       </c>
       <c r="BK22">
+        <v>4513891.566688489</v>
+      </c>
+      <c r="BL22">
+        <v>4513891.566688489</v>
+      </c>
+      <c r="BM22">
+        <v>356726.100308762</v>
+      </c>
+      <c r="BN22">
         <v>443646630070.658</v>
       </c>
-      <c r="BL22">
+      <c r="BO22">
         <v>38267056892.85262</v>
       </c>
+      <c r="BP22">
+        <v>1192452610182.702</v>
+      </c>
+      <c r="BQ22">
+        <v>94237746553.92288</v>
+      </c>
     </row>
-    <row r="23" spans="1:64">
+    <row r="23" spans="1:69">
       <c r="A23" s="1">
         <v>1462</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -5727,7 +6036,7 @@
         <v>-999</v>
       </c>
       <c r="AK23" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AL23">
         <v>-999</v>
@@ -5796,7 +6105,7 @@
         <v>3013918723371.13</v>
       </c>
       <c r="BH23" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BI23">
         <v>995369.6736633064</v>
@@ -5805,30 +6114,45 @@
         <v>98113.12683478557</v>
       </c>
       <c r="BK23">
+        <v>2664856.237297608</v>
+      </c>
+      <c r="BL23">
+        <v>2664856.237297608</v>
+      </c>
+      <c r="BM23">
+        <v>236275.7835125005</v>
+      </c>
+      <c r="BN23">
         <v>235311263535.0802</v>
       </c>
-      <c r="BL23">
+      <c r="BO23">
         <v>23194522051.19163</v>
       </c>
+      <c r="BP23">
+        <v>629987737148.9546</v>
+      </c>
+      <c r="BQ23">
+        <v>55856989249.47784</v>
+      </c>
     </row>
-    <row r="24" spans="1:64">
+    <row r="24" spans="1:69">
       <c r="A24" s="1">
         <v>1475</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -5921,7 +6245,7 @@
         <v>-999</v>
       </c>
       <c r="AK24" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AL24">
         <v>-999</v>
@@ -5990,7 +6314,7 @@
         <v>23460487003951.4</v>
       </c>
       <c r="BH24" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="BI24">
         <v>37187298.69937151</v>
@@ -5998,31 +6322,37 @@
       <c r="BJ24">
         <v>1206498.326139162</v>
       </c>
-      <c r="BK24">
+      <c r="BM24">
+        <v>2286399.293612078</v>
+      </c>
+      <c r="BN24">
         <v>1304177530909.296</v>
       </c>
-      <c r="BL24">
+      <c r="BO24">
         <v>42312511611.84674</v>
       </c>
+      <c r="BQ24">
+        <v>80185189290.61533</v>
+      </c>
     </row>
-    <row r="25" spans="1:64">
+    <row r="25" spans="1:69">
       <c r="A25" s="1">
         <v>1483</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6115,7 +6445,7 @@
         <v>-999</v>
       </c>
       <c r="AK25" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AL25">
         <v>-999</v>
@@ -6184,7 +6514,7 @@
         <v>13395889233942.3</v>
       </c>
       <c r="BH25" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="BI25">
         <v>16364967.08534593</v>
@@ -6193,30 +6523,45 @@
         <v>677544.0393535305</v>
       </c>
       <c r="BK25">
+        <v>41403466.83002376</v>
+      </c>
+      <c r="BL25">
+        <v>41403466.83002376</v>
+      </c>
+      <c r="BM25">
+        <v>1787991.22594201</v>
+      </c>
+      <c r="BN25">
         <v>787889867476.9424</v>
       </c>
-      <c r="BL25">
+      <c r="BO25">
         <v>32620296795.71218</v>
       </c>
+      <c r="BP25">
+        <v>1993366184219.479</v>
+      </c>
+      <c r="BQ25">
+        <v>86082676653.76773</v>
+      </c>
     </row>
-    <row r="26" spans="1:64">
+    <row r="26" spans="1:69">
       <c r="A26" s="1">
         <v>1635</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6309,7 +6654,7 @@
         <v>-999</v>
       </c>
       <c r="AK26" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AL26">
         <v>-999</v>
@@ -6378,7 +6723,7 @@
         <v>8949699489190.131</v>
       </c>
       <c r="BH26" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BI26">
         <v>3331229.453210002</v>
@@ -6387,30 +6732,45 @@
         <v>234570.0932462805</v>
       </c>
       <c r="BK26">
+        <v>8872532.044717286</v>
+      </c>
+      <c r="BL26">
+        <v>8872532.044717286</v>
+      </c>
+      <c r="BM26">
+        <v>591746.4181896251</v>
+      </c>
+      <c r="BN26">
         <v>680881580620.0895</v>
       </c>
-      <c r="BL26">
+      <c r="BO26">
         <v>47944597662.53177</v>
       </c>
+      <c r="BP26">
+        <v>1813487701031.282</v>
+      </c>
+      <c r="BQ26">
+        <v>120949109691.3128</v>
+      </c>
     </row>
-    <row r="27" spans="1:64">
+    <row r="27" spans="1:69">
       <c r="A27" s="1">
         <v>1693</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -6503,7 +6863,7 @@
         <v>-999</v>
       </c>
       <c r="AK27" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AL27">
         <v>-999</v>
@@ -6572,7 +6932,7 @@
         <v>29721595721682</v>
       </c>
       <c r="BH27" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="BI27">
         <v>144107032.9309173</v>
@@ -6580,31 +6940,37 @@
       <c r="BJ27">
         <v>2948454.126500628</v>
       </c>
-      <c r="BK27">
+      <c r="BM27">
+        <v>9598787.22545482</v>
+      </c>
+      <c r="BN27">
         <v>1296961855307.926</v>
       </c>
-      <c r="BL27">
+      <c r="BO27">
         <v>26536057653.96439</v>
       </c>
+      <c r="BQ27">
+        <v>86388989041.22113</v>
+      </c>
     </row>
-    <row r="28" spans="1:64">
+    <row r="28" spans="1:69">
       <c r="A28" s="1">
         <v>1886</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -6697,7 +7063,7 @@
         <v>-999</v>
       </c>
       <c r="AK28" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AL28">
         <v>-999</v>
@@ -6766,7 +7132,7 @@
         <v>19086449836679.7</v>
       </c>
       <c r="BH28" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="BI28">
         <v>101042791.7777573</v>
@@ -6775,30 +7141,45 @@
         <v>2258343.835860322</v>
       </c>
       <c r="BK28">
+        <v>5580384.823065686</v>
+      </c>
+      <c r="BL28">
+        <v>5580384.823065686</v>
+      </c>
+      <c r="BM28">
+        <v>249374.00316682</v>
+      </c>
+      <c r="BN28">
         <v>817175495079.2699</v>
       </c>
-      <c r="BL28">
+      <c r="BO28">
         <v>18264175105.01348</v>
       </c>
+      <c r="BP28">
+        <v>45130915825.75789</v>
+      </c>
+      <c r="BQ28">
+        <v>2016792300.691404</v>
+      </c>
     </row>
-    <row r="29" spans="1:64">
+    <row r="29" spans="1:69">
       <c r="A29" s="1">
         <v>1915</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -6891,7 +7272,7 @@
         <v>-999</v>
       </c>
       <c r="AK29" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AL29">
         <v>-999</v>
@@ -6960,7 +7341,7 @@
         <v>3331648547686.3</v>
       </c>
       <c r="BH29" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="BI29">
         <v>111629.5257943392</v>
@@ -6969,30 +7350,45 @@
         <v>24142.05455630307</v>
       </c>
       <c r="BK29">
+        <v>329946.6411169038</v>
+      </c>
+      <c r="BL29">
+        <v>329946.6411169038</v>
+      </c>
+      <c r="BM29">
+        <v>55211.43185487166</v>
+      </c>
+      <c r="BN29">
         <v>426931578767.4154</v>
       </c>
-      <c r="BL29">
+      <c r="BO29">
         <v>92332251642.81953</v>
       </c>
+      <c r="BP29">
+        <v>1261894103720.979</v>
+      </c>
+      <c r="BQ29">
+        <v>211158325721.4306</v>
+      </c>
     </row>
-    <row r="30" spans="1:64">
+    <row r="30" spans="1:69">
       <c r="A30" s="1">
         <v>1919</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -7085,7 +7481,7 @@
         <v>-999</v>
       </c>
       <c r="AK30" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AL30">
         <v>-999</v>
@@ -7154,7 +7550,7 @@
         <v>27068053046251.4</v>
       </c>
       <c r="BH30" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="BI30">
         <v>132836226.7222217</v>
@@ -7163,30 +7559,45 @@
         <v>2775416.093425207</v>
       </c>
       <c r="BK30">
+        <v>7111851.402330608</v>
+      </c>
+      <c r="BL30">
+        <v>7111851.402330608</v>
+      </c>
+      <c r="BM30">
+        <v>301312.0611932001</v>
+      </c>
+      <c r="BN30">
         <v>1178083315569.1</v>
       </c>
-      <c r="BL30">
+      <c r="BO30">
         <v>24614304953.59921</v>
       </c>
+      <c r="BP30">
+        <v>63072805413.33544</v>
+      </c>
+      <c r="BQ30">
+        <v>2672243263.983522</v>
+      </c>
     </row>
-    <row r="31" spans="1:64">
+    <row r="31" spans="1:69">
       <c r="A31" s="1">
         <v>1932</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -7279,7 +7690,7 @@
         <v>-999</v>
       </c>
       <c r="AK31" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AL31">
         <v>-999</v>
@@ -7348,7 +7759,7 @@
         <v>20817796119992.6</v>
       </c>
       <c r="BH31" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="BI31">
         <v>53914631.7146586</v>
@@ -7357,30 +7768,45 @@
         <v>1517441.629790314</v>
       </c>
       <c r="BK31">
+        <v>2221275.290474847</v>
+      </c>
+      <c r="BL31">
+        <v>2221275.290474847</v>
+      </c>
+      <c r="BM31">
+        <v>124370.1913392755</v>
+      </c>
+      <c r="BN31">
         <v>1040552392092.911</v>
       </c>
-      <c r="BL31">
+      <c r="BO31">
         <v>29286623454.95306</v>
       </c>
+      <c r="BP31">
+        <v>42870613106.16456</v>
+      </c>
+      <c r="BQ31">
+        <v>2400344692.848016</v>
+      </c>
     </row>
-    <row r="32" spans="1:64">
+    <row r="32" spans="1:69">
       <c r="A32" s="1">
         <v>2056</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -7473,7 +7899,7 @@
         <v>-999</v>
       </c>
       <c r="AK32" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AL32">
         <v>-999</v>
@@ -7542,7 +7968,7 @@
         <v>10958435227958.1</v>
       </c>
       <c r="BH32" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="BI32">
         <v>26957013.4545311</v>
@@ -7551,30 +7977,45 @@
         <v>918885.382940521</v>
       </c>
       <c r="BK32">
+        <v>66167901.09942357</v>
+      </c>
+      <c r="BL32">
+        <v>66167901.09942357</v>
+      </c>
+      <c r="BM32">
+        <v>2446788.190288658</v>
+      </c>
+      <c r="BN32">
         <v>553881981468.3668</v>
       </c>
-      <c r="BL32">
+      <c r="BO32">
         <v>18880209319.32528</v>
       </c>
+      <c r="BP32">
+        <v>1359542600383.702</v>
+      </c>
+      <c r="BQ32">
+        <v>50273814395.51441</v>
+      </c>
     </row>
-    <row r="33" spans="1:64">
+    <row r="33" spans="1:69">
       <c r="A33" s="1">
         <v>2275</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -7667,7 +8108,7 @@
         <v>-999</v>
       </c>
       <c r="AK33" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AL33">
         <v>-999</v>
@@ -7736,7 +8177,7 @@
         <v>12924609807666.3</v>
       </c>
       <c r="BH33" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="BI33">
         <v>23596020.50831455</v>
@@ -7745,30 +8186,45 @@
         <v>855225.892672767</v>
       </c>
       <c r="BK33">
+        <v>842360.4012015319</v>
+      </c>
+      <c r="BL33">
+        <v>842360.4012015319</v>
+      </c>
+      <c r="BM33">
+        <v>59249.00155363681</v>
+      </c>
+      <c r="BN33">
         <v>696833666328.0588</v>
       </c>
-      <c r="BL33">
+      <c r="BO33">
         <v>25256385674.0104</v>
       </c>
+      <c r="BP33">
+        <v>24876444167.01544</v>
+      </c>
+      <c r="BQ33">
+        <v>1749731441.551738</v>
+      </c>
     </row>
-    <row r="34" spans="1:64">
+    <row r="34" spans="1:69">
       <c r="A34" s="1">
         <v>2763</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G34">
         <v>-999</v>
@@ -7861,7 +8317,7 @@
         <v>-999</v>
       </c>
       <c r="AK34" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AL34">
         <v>-999</v>
@@ -7930,7 +8386,7 @@
         <v>6340068206683.66</v>
       </c>
       <c r="BH34" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="BI34">
         <v>4874857.384603316</v>
@@ -7939,30 +8395,45 @@
         <v>291158.5722079343</v>
       </c>
       <c r="BK34">
+        <v>12582856.89320466</v>
+      </c>
+      <c r="BL34">
+        <v>12582856.89320466</v>
+      </c>
+      <c r="BM34">
+        <v>737343.710636587</v>
+      </c>
+      <c r="BN34">
         <v>412220719110.7657</v>
       </c>
-      <c r="BL34">
+      <c r="BO34">
         <v>24620534826.28909</v>
       </c>
+      <c r="BP34">
+        <v>1064013551117.815</v>
+      </c>
+      <c r="BQ34">
+        <v>62350204457.34486</v>
+      </c>
     </row>
-    <row r="35" spans="1:64">
+    <row r="35" spans="1:69">
       <c r="A35" s="1">
         <v>2764</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -8055,7 +8526,7 @@
         <v>-999</v>
       </c>
       <c r="AK35" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AL35">
         <v>-999</v>
@@ -8124,7 +8595,7 @@
         <v>14410636173692</v>
       </c>
       <c r="BH35" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BI35">
         <v>12109285.94554609</v>
@@ -8133,30 +8604,45 @@
         <v>561444.4203944429</v>
       </c>
       <c r="BK35">
+        <v>31136370.10131651</v>
+      </c>
+      <c r="BL35">
+        <v>31136370.10131651</v>
+      </c>
+      <c r="BM35">
+        <v>1472479.027243165</v>
+      </c>
+      <c r="BN35">
         <v>919109939874.3798</v>
       </c>
-      <c r="BL35">
+      <c r="BO35">
         <v>42614333313.46371</v>
       </c>
+      <c r="BP35">
+        <v>2363289411152.55</v>
+      </c>
+      <c r="BQ35">
+        <v>111762998766.5403</v>
+      </c>
     </row>
-    <row r="36" spans="1:64">
+    <row r="36" spans="1:69">
       <c r="A36" s="1">
         <v>2781</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -8249,7 +8735,7 @@
         <v>-999</v>
       </c>
       <c r="AK36" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AL36">
         <v>-999</v>
@@ -8318,7 +8804,7 @@
         <v>19273000829799</v>
       </c>
       <c r="BH36" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="BI36">
         <v>20740711.78108814</v>
@@ -8327,30 +8813,45 @@
         <v>814243.6227416324</v>
       </c>
       <c r="BK36">
+        <v>596213.8652040096</v>
+      </c>
+      <c r="BL36">
+        <v>596213.8652040096</v>
+      </c>
+      <c r="BM36">
+        <v>45910.83607958059</v>
+      </c>
+      <c r="BN36">
         <v>1165113632444.983</v>
       </c>
-      <c r="BL36">
+      <c r="BO36">
         <v>45740298356.23575</v>
       </c>
+      <c r="BP36">
+        <v>33492433120.60828</v>
+      </c>
+      <c r="BQ36">
+        <v>2579050398.937655</v>
+      </c>
     </row>
-    <row r="37" spans="1:64">
+    <row r="37" spans="1:69">
       <c r="A37" s="1">
         <v>2784</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G37">
         <v>-999</v>
@@ -8443,7 +8944,7 @@
         <v>-999</v>
       </c>
       <c r="AK37" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AL37">
         <v>-999</v>
@@ -8512,7 +9013,7 @@
         <v>2528478242993.96</v>
       </c>
       <c r="BH37" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="BI37">
         <v>958896.2258909285</v>
@@ -8521,30 +9022,45 @@
         <v>94356.71974489307</v>
       </c>
       <c r="BK37">
+        <v>2551899.922315709</v>
+      </c>
+      <c r="BL37">
+        <v>2551899.922315709</v>
+      </c>
+      <c r="BM37">
+        <v>226399.4353118431</v>
+      </c>
+      <c r="BN37">
         <v>191586459091.9703</v>
       </c>
-      <c r="BL37">
+      <c r="BO37">
         <v>18852373530.4739</v>
       </c>
+      <c r="BP37">
+        <v>509866924983.7602</v>
+      </c>
+      <c r="BQ37">
+        <v>45234369455.89918</v>
+      </c>
     </row>
-    <row r="38" spans="1:64">
+    <row r="38" spans="1:69">
       <c r="A38" s="1">
         <v>2819</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G38">
         <v>-999</v>
@@ -8637,7 +9153,7 @@
         <v>-999</v>
       </c>
       <c r="AK38" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AL38">
         <v>-999</v>
@@ -8706,7 +9222,7 @@
         <v>3583607690746.78</v>
       </c>
       <c r="BH38" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="BI38">
         <v>2155503.242468512</v>
@@ -8715,30 +9231,45 @@
         <v>163869.054916106</v>
       </c>
       <c r="BK38">
+        <v>5623125.751139513</v>
+      </c>
+      <c r="BL38">
+        <v>5623125.751139513</v>
+      </c>
+      <c r="BM38">
+        <v>403210.4395241395</v>
+      </c>
+      <c r="BN38">
         <v>245724610597.26</v>
       </c>
-      <c r="BL38">
+      <c r="BO38">
         <v>18680862508.0458</v>
       </c>
+      <c r="BP38">
+        <v>641029138028.9431</v>
+      </c>
+      <c r="BQ38">
+        <v>45965473996.38931</v>
+      </c>
     </row>
-    <row r="39" spans="1:64">
+    <row r="39" spans="1:69">
       <c r="A39" s="1">
         <v>2844</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -8831,7 +9362,7 @@
         <v>-999</v>
       </c>
       <c r="AK39" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AL39">
         <v>-999</v>
@@ -8900,7 +9431,7 @@
         <v>3815050311868.76</v>
       </c>
       <c r="BH39" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="BI39">
         <v>1749029.738177804</v>
@@ -8909,30 +9440,45 @@
         <v>143979.2088782509</v>
       </c>
       <c r="BK39">
+        <v>35439.9399059444</v>
+      </c>
+      <c r="BL39">
+        <v>35439.9399059444</v>
+      </c>
+      <c r="BM39">
+        <v>5281.731911930166</v>
+      </c>
+      <c r="BN39">
         <v>277437970756.6343</v>
       </c>
-      <c r="BL39">
+      <c r="BO39">
         <v>22838547950.55904</v>
       </c>
+      <c r="BP39">
+        <v>5621622546.844731</v>
+      </c>
+      <c r="BQ39">
+        <v>837809073.0767767</v>
+      </c>
     </row>
-    <row r="40" spans="1:64">
+    <row r="40" spans="1:69">
       <c r="A40" s="1">
         <v>2845</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -9025,7 +9571,7 @@
         <v>-999</v>
       </c>
       <c r="AK40" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AL40">
         <v>-999</v>
@@ -9094,7 +9640,7 @@
         <v>9026158262853.029</v>
       </c>
       <c r="BH40" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="BI40">
         <v>6982120.080711506</v>
@@ -9103,30 +9649,45 @@
         <v>378272.8092120924</v>
       </c>
       <c r="BK40">
+        <v>175306.0011907711</v>
+      </c>
+      <c r="BL40">
+        <v>175306.0011907711</v>
+      </c>
+      <c r="BM40">
+        <v>17958.45509343289</v>
+      </c>
+      <c r="BN40">
         <v>586100734325.9733</v>
       </c>
-      <c r="BL40">
+      <c r="BO40">
         <v>31753388468.2435</v>
       </c>
+      <c r="BP40">
+        <v>14715727435.49701</v>
+      </c>
+      <c r="BQ40">
+        <v>1507488212.168996</v>
+      </c>
     </row>
-    <row r="41" spans="1:64">
+    <row r="41" spans="1:69">
       <c r="A41" s="1">
         <v>2846</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -9219,7 +9780,7 @@
         <v>-999</v>
       </c>
       <c r="AK41" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AL41">
         <v>-999</v>
@@ -9288,7 +9849,7 @@
         <v>34736611624656.6</v>
       </c>
       <c r="BH41" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="BI41">
         <v>39581951.58396709</v>
@@ -9297,30 +9858,45 @@
         <v>1298761.190316579</v>
       </c>
       <c r="BK41">
+        <v>1164808.471586463</v>
+      </c>
+      <c r="BL41">
+        <v>1164808.471586463</v>
+      </c>
+      <c r="BM41">
+        <v>76944.08423598741</v>
+      </c>
+      <c r="BN41">
         <v>2074093867180.36</v>
       </c>
-      <c r="BL41">
+      <c r="BO41">
         <v>68055073384.97682</v>
       </c>
+      <c r="BP41">
+        <v>61035952263.04594</v>
+      </c>
+      <c r="BQ41">
+        <v>4031869244.524898</v>
+      </c>
     </row>
-    <row r="42" spans="1:64">
+    <row r="42" spans="1:69">
       <c r="A42" s="1">
         <v>2911</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -9413,7 +9989,7 @@
         <v>-999</v>
       </c>
       <c r="AK42" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AL42">
         <v>-999</v>
@@ -9482,7 +10058,7 @@
         <v>15938720238964</v>
       </c>
       <c r="BH42" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="BI42">
         <v>38311020.83776642</v>
@@ -9491,30 +10067,45 @@
         <v>1190019.534733585</v>
       </c>
       <c r="BK42">
+        <v>94131300.85340115</v>
+      </c>
+      <c r="BL42">
+        <v>94131300.85340115</v>
+      </c>
+      <c r="BM42">
+        <v>3214790.837416113</v>
+      </c>
+      <c r="BN42">
         <v>809653237968.8959</v>
       </c>
-      <c r="BL42">
+      <c r="BO42">
         <v>25149503941.00382</v>
       </c>
+      <c r="BP42">
+        <v>1989341731532.515</v>
+      </c>
+      <c r="BQ42">
+        <v>67940392972.79253</v>
+      </c>
     </row>
-    <row r="43" spans="1:64">
+    <row r="43" spans="1:69">
       <c r="A43" s="1">
         <v>3050</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F43" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -9607,7 +10198,7 @@
         <v>-999</v>
       </c>
       <c r="AK43" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AL43">
         <v>-999</v>
@@ -9676,7 +10267,7 @@
         <v>9955175536914.721</v>
       </c>
       <c r="BH43" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="BI43">
         <v>7811309.032583497</v>
@@ -9685,30 +10276,45 @@
         <v>410067.3091354645</v>
       </c>
       <c r="BK43">
+        <v>20144676.43530006</v>
+      </c>
+      <c r="BL43">
+        <v>20144676.43530006</v>
+      </c>
+      <c r="BM43">
+        <v>1057908.307039537</v>
+      </c>
+      <c r="BN43">
         <v>644432917075.0482</v>
       </c>
-      <c r="BL43">
+      <c r="BO43">
         <v>33830548903.00273</v>
       </c>
+      <c r="BP43">
+        <v>1661935604465.491</v>
+      </c>
+      <c r="BQ43">
+        <v>87277424751.67877</v>
+      </c>
     </row>
-    <row r="44" spans="1:64">
+    <row r="44" spans="1:69">
       <c r="A44" s="1">
         <v>3295</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -9801,7 +10407,7 @@
         <v>-999</v>
       </c>
       <c r="AK44" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AL44">
         <v>-999</v>
@@ -9870,7 +10476,7 @@
         <v>5881489863927.78</v>
       </c>
       <c r="BH44" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="BI44">
         <v>5341011.561225715</v>
@@ -9878,31 +10484,37 @@
       <c r="BJ44">
         <v>306847.8267332161</v>
       </c>
-      <c r="BK44">
+      <c r="BM44">
+        <v>362675.6327782345</v>
+      </c>
+      <c r="BN44">
         <v>368870500852.0649</v>
       </c>
-      <c r="BL44">
+      <c r="BO44">
         <v>21192073867.45922</v>
       </c>
+      <c r="BQ44">
+        <v>25047753740.3131</v>
+      </c>
     </row>
-    <row r="45" spans="1:64">
+    <row r="45" spans="1:69">
       <c r="A45" s="1">
         <v>3296</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -9995,7 +10607,7 @@
         <v>-999</v>
       </c>
       <c r="AK45" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AL45">
         <v>-999</v>
@@ -10064,7 +10676,7 @@
         <v>4799556715819.14</v>
       </c>
       <c r="BH45" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="BI45">
         <v>4310512.990010505</v>
@@ -10072,31 +10684,37 @@
       <c r="BJ45">
         <v>262647.8456713386</v>
       </c>
-      <c r="BK45">
+      <c r="BM45">
+        <v>299005.4036369375</v>
+      </c>
+      <c r="BN45">
         <v>301737245559.7622</v>
       </c>
-      <c r="BL45">
+      <c r="BO45">
         <v>18385430617.82586</v>
       </c>
+      <c r="BQ45">
+        <v>20930470946.26075</v>
+      </c>
     </row>
-    <row r="46" spans="1:64">
+    <row r="46" spans="1:69">
       <c r="A46" s="1">
         <v>3438</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -10189,7 +10807,7 @@
         <v>-999</v>
       </c>
       <c r="AK46" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AL46">
         <v>-999</v>
@@ -10258,7 +10876,7 @@
         <v>22660248130350.5</v>
       </c>
       <c r="BH46" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="BI46">
         <v>25208145.21193522</v>
@@ -10267,30 +10885,45 @@
         <v>936203.9217680689</v>
       </c>
       <c r="BK46">
+        <v>734551.0594569083</v>
+      </c>
+      <c r="BL46">
+        <v>734551.0594569083</v>
+      </c>
+      <c r="BM46">
+        <v>53905.67531306316</v>
+      </c>
+      <c r="BN46">
         <v>1360081527172.013</v>
       </c>
-      <c r="BL46">
+      <c r="BO46">
         <v>50511993205.27048</v>
       </c>
+      <c r="BP46">
+        <v>39632004589.491</v>
+      </c>
+      <c r="BQ46">
+        <v>2908429501.124775</v>
+      </c>
     </row>
-    <row r="47" spans="1:64">
+    <row r="47" spans="1:69">
       <c r="A47" s="1">
         <v>3441</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -10383,7 +11016,7 @@
         <v>-999</v>
       </c>
       <c r="AK47" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL47">
         <v>-999</v>
@@ -10452,7 +11085,7 @@
         <v>7570387844146.94</v>
       </c>
       <c r="BH47" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="BI47">
         <v>3163960.304808313</v>
@@ -10461,30 +11094,45 @@
         <v>223692.4938218548</v>
       </c>
       <c r="BK47">
+        <v>8384902.957854896</v>
+      </c>
+      <c r="BL47">
+        <v>8384902.957854896</v>
+      </c>
+      <c r="BM47">
+        <v>562122.6031227666</v>
+      </c>
+      <c r="BN47">
         <v>561675408794.4557</v>
       </c>
-      <c r="BL47">
+      <c r="BO47">
         <v>39710540211.48775</v>
       </c>
+      <c r="BP47">
+        <v>1488512289296.979</v>
+      </c>
+      <c r="BQ47">
+        <v>99789634661.90257</v>
+      </c>
     </row>
-    <row r="48" spans="1:64">
+    <row r="48" spans="1:69">
       <c r="A48" s="1">
         <v>3495</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F48" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G48">
         <v>-999</v>
@@ -10577,7 +11225,7 @@
         <v>-999</v>
       </c>
       <c r="AK48" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AL48">
         <v>-999</v>
@@ -10646,7 +11294,7 @@
         <v>18784272161996.6</v>
       </c>
       <c r="BH48" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="BI48">
         <v>11714939.72938532</v>
@@ -10655,30 +11303,45 @@
         <v>562143.2981908144</v>
       </c>
       <c r="BK48">
+        <v>30513319.18842518</v>
+      </c>
+      <c r="BL48">
+        <v>30513319.18842518</v>
+      </c>
+      <c r="BM48">
+        <v>1479255.636936915</v>
+      </c>
+      <c r="BN48">
         <v>1277965202669.051</v>
       </c>
-      <c r="BL48">
+      <c r="BO48">
         <v>61323369184.68866</v>
       </c>
+      <c r="BP48">
+        <v>3328652220286.52</v>
+      </c>
+      <c r="BQ48">
+        <v>161369778549.9926</v>
+      </c>
     </row>
-    <row r="49" spans="1:64">
+    <row r="49" spans="1:69">
       <c r="A49" s="1">
         <v>4034</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -10771,7 +11434,7 @@
         <v>-999</v>
       </c>
       <c r="AK49" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AL49">
         <v>-999</v>
@@ -10840,7 +11503,7 @@
         <v>12064054173824.8</v>
       </c>
       <c r="BH49" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="BI49">
         <v>16095685.43118393</v>
@@ -10849,30 +11512,45 @@
         <v>664378.2076333303</v>
       </c>
       <c r="BK49">
+        <v>40567280.88522815</v>
+      </c>
+      <c r="BL49">
+        <v>40567280.88522815</v>
+      </c>
+      <c r="BM49">
+        <v>1749666.631205165</v>
+      </c>
+      <c r="BN49">
         <v>696144672216.0233</v>
       </c>
-      <c r="BL49">
+      <c r="BO49">
         <v>28734616587.64251</v>
       </c>
+      <c r="BP49">
+        <v>1754550719525.663</v>
+      </c>
+      <c r="BQ49">
+        <v>75673764169.60954</v>
+      </c>
     </row>
-    <row r="50" spans="1:64">
+    <row r="50" spans="1:69">
       <c r="A50" s="1">
         <v>4036</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F50" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -10965,7 +11643,7 @@
         <v>-999</v>
       </c>
       <c r="AK50" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AL50">
         <v>-999</v>
@@ -11034,7 +11712,7 @@
         <v>6085607899611.66</v>
       </c>
       <c r="BH50" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="BI50">
         <v>2250128.750947043</v>
@@ -11043,30 +11721,45 @@
         <v>176250.0494392878</v>
       </c>
       <c r="BK50">
+        <v>5994811.005748411</v>
+      </c>
+      <c r="BL50">
+        <v>5994811.005748411</v>
+      </c>
+      <c r="BM50">
+        <v>437745.4932760849</v>
+      </c>
+      <c r="BN50">
         <v>463653452457.9318</v>
       </c>
-      <c r="BL50">
+      <c r="BO50">
         <v>36317452449.78217</v>
       </c>
+      <c r="BP50">
+        <v>1235269234473.007</v>
+      </c>
+      <c r="BQ50">
+        <v>90200264838.14919</v>
+      </c>
     </row>
-    <row r="51" spans="1:64">
+    <row r="51" spans="1:69">
       <c r="A51" s="1">
         <v>4053</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -11159,7 +11852,7 @@
         <v>-999</v>
       </c>
       <c r="AK51" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AL51">
         <v>-999</v>
@@ -11228,7 +11921,7 @@
         <v>13073014513067.8</v>
       </c>
       <c r="BH51" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="BI51">
         <v>5675515.636315196</v>
@@ -11236,31 +11929,37 @@
       <c r="BJ51">
         <v>341585.0958077587</v>
       </c>
-      <c r="BK51">
+      <c r="BM51">
+        <v>329101.170900445</v>
+      </c>
+      <c r="BN51">
         <v>961980830622.8877</v>
       </c>
-      <c r="BL51">
+      <c r="BO51">
         <v>57897526013.49319</v>
       </c>
+      <c r="BQ51">
+        <v>55781542687.6912</v>
+      </c>
     </row>
-    <row r="52" spans="1:64">
+    <row r="52" spans="1:69">
       <c r="A52" s="1">
         <v>4107</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F52" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -11353,7 +12052,7 @@
         <v>419.99</v>
       </c>
       <c r="AK52" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AL52">
         <v>-999</v>
@@ -11422,7 +12121,7 @@
         <v>28026521310401.1</v>
       </c>
       <c r="BH52" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="BI52">
         <v>21568166.98831041</v>
@@ -11430,31 +12129,37 @@
       <c r="BJ52">
         <v>862122.5299406088</v>
       </c>
-      <c r="BK52">
+      <c r="BM52">
+        <v>1214219.529140246</v>
+      </c>
+      <c r="BN52">
         <v>1821896280479.742</v>
       </c>
-      <c r="BL52">
+      <c r="BO52">
         <v>72824817772.77933</v>
       </c>
+      <c r="BQ52">
+        <v>102566993524.5515</v>
+      </c>
     </row>
-    <row r="53" spans="1:64">
+    <row r="53" spans="1:69">
       <c r="A53" s="1">
         <v>4112</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -11547,7 +12252,7 @@
         <v>-999</v>
       </c>
       <c r="AK53" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AL53">
         <v>-999</v>
@@ -11616,7 +12321,7 @@
         <v>13576011167444.5</v>
       </c>
       <c r="BH53" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="BI53">
         <v>41795447.66570461</v>
@@ -11625,30 +12330,45 @@
         <v>1241625.802766009</v>
       </c>
       <c r="BK53">
+        <v>101599349.0925624</v>
+      </c>
+      <c r="BL53">
+        <v>101599349.0925624</v>
+      </c>
+      <c r="BM53">
+        <v>3352874.932233041</v>
+      </c>
+      <c r="BN53">
         <v>653645275361.1042</v>
       </c>
-      <c r="BL53">
+      <c r="BO53">
         <v>19417972173.32803</v>
       </c>
+      <c r="BP53">
+        <v>1588927460360.947</v>
+      </c>
+      <c r="BQ53">
+        <v>52436113996.43237</v>
+      </c>
     </row>
-    <row r="54" spans="1:64">
+    <row r="54" spans="1:69">
       <c r="A54" s="1">
         <v>4145</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F54" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -11741,7 +12461,7 @@
         <v>-999</v>
       </c>
       <c r="AK54" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AL54">
         <v>-999</v>
@@ -11810,7 +12530,7 @@
         <v>8443091759491.88</v>
       </c>
       <c r="BH54" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="BI54">
         <v>1309940.863844482</v>
@@ -11819,30 +12539,45 @@
         <v>127866.5072694528</v>
       </c>
       <c r="BK54">
+        <v>3623516.890987492</v>
+      </c>
+      <c r="BL54">
+        <v>3623516.890987492</v>
+      </c>
+      <c r="BM54">
+        <v>315036.3468682506</v>
+      </c>
+      <c r="BN54">
         <v>776357385812.4365</v>
       </c>
-      <c r="BL54">
+      <c r="BO54">
         <v>75782128840.02736</v>
       </c>
+      <c r="BP54">
+        <v>2147535189243.655</v>
+      </c>
+      <c r="BQ54">
+        <v>186711325252.2917</v>
+      </c>
     </row>
-    <row r="55" spans="1:64">
+    <row r="55" spans="1:69">
       <c r="A55" s="1">
         <v>4257</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F55" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -11935,7 +12670,7 @@
         <v>-999</v>
       </c>
       <c r="AK55" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AL55">
         <v>-999</v>
@@ -12004,7 +12739,7 @@
         <v>6856360412844.35</v>
       </c>
       <c r="BH55" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="BI55">
         <v>3106136.808171297</v>
@@ -12013,30 +12748,45 @@
         <v>219189.3751042946</v>
       </c>
       <c r="BK55">
+        <v>8203012.389628329</v>
+      </c>
+      <c r="BL55">
+        <v>8203012.389628329</v>
+      </c>
+      <c r="BM55">
+        <v>549705.4966541242</v>
+      </c>
+      <c r="BN55">
         <v>499895010774.3191</v>
       </c>
-      <c r="BL55">
+      <c r="BO55">
         <v>35275868964.02245</v>
       </c>
+      <c r="BP55">
+        <v>1320175259540.269</v>
+      </c>
+      <c r="BQ55">
+        <v>88468426261.75191</v>
+      </c>
     </row>
-    <row r="56" spans="1:64">
+    <row r="56" spans="1:69">
       <c r="A56" s="1">
         <v>4258</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -12129,7 +12879,7 @@
         <v>-999</v>
       </c>
       <c r="AK56" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AL56">
         <v>-999</v>
@@ -12198,7 +12948,7 @@
         <v>23096275489413.2</v>
       </c>
       <c r="BH56" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="BI56">
         <v>4398280.659584211</v>
@@ -12207,30 +12957,45 @@
         <v>304210.9382820619</v>
       </c>
       <c r="BK56">
+        <v>12059047.82486826</v>
+      </c>
+      <c r="BL56">
+        <v>12059047.82486826</v>
+      </c>
+      <c r="BM56">
+        <v>784197.6384155793</v>
+      </c>
+      <c r="BN56">
         <v>2031569179355.249</v>
       </c>
-      <c r="BL56">
+      <c r="BO56">
         <v>140515263592.7975</v>
       </c>
+      <c r="BP56">
+        <v>5570083355182.998</v>
+      </c>
+      <c r="BQ56">
+        <v>362221485174.3613</v>
+      </c>
     </row>
-    <row r="57" spans="1:64">
+    <row r="57" spans="1:69">
       <c r="A57" s="1">
         <v>4348</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -12323,7 +13088,7 @@
         <v>-999</v>
       </c>
       <c r="AK57" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AL57">
         <v>-999</v>
@@ -12392,7 +13157,7 @@
         <v>11817071133471.9</v>
       </c>
       <c r="BH57" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="BI57">
         <v>30575317.61793469</v>
@@ -12400,31 +13165,37 @@
       <c r="BJ57">
         <v>1003048.582151759</v>
       </c>
-      <c r="BK57">
+      <c r="BM57">
+        <v>2123647.574540227</v>
+      </c>
+      <c r="BN57">
         <v>590783013583.6101</v>
       </c>
-      <c r="BL57">
+      <c r="BO57">
         <v>19381125375.02435</v>
       </c>
+      <c r="BQ57">
+        <v>41033585637.73267</v>
+      </c>
     </row>
-    <row r="58" spans="1:64">
+    <row r="58" spans="1:69">
       <c r="A58" s="1">
         <v>4442</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F58" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -12517,7 +13288,7 @@
         <v>-999</v>
       </c>
       <c r="AK58" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AL58">
         <v>-999</v>
@@ -12586,7 +13357,7 @@
         <v>13750306716734.4</v>
       </c>
       <c r="BH58" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="BI58">
         <v>23622821.86624753</v>
@@ -12594,31 +13365,37 @@
       <c r="BJ58">
         <v>860381.384956459</v>
       </c>
-      <c r="BK58">
+      <c r="BM58">
+        <v>1552134.925988222</v>
+      </c>
+      <c r="BN58">
         <v>751175261906.4639</v>
       </c>
-      <c r="BL58">
+      <c r="BO58">
         <v>27359018149.6288</v>
       </c>
+      <c r="BQ58">
+        <v>49355888392.37093</v>
+      </c>
     </row>
-    <row r="59" spans="1:64">
+    <row r="59" spans="1:69">
       <c r="A59" s="1">
         <v>4549</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F59" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -12711,7 +13488,7 @@
         <v>-999</v>
       </c>
       <c r="AK59" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AL59">
         <v>-999</v>
@@ -12780,7 +13557,7 @@
         <v>2217282327608.96</v>
       </c>
       <c r="BH59" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="BI59">
         <v>654519.1921410648</v>
@@ -12789,30 +13566,45 @@
         <v>72941.88578562485</v>
       </c>
       <c r="BK59">
+        <v>1760840.771958865</v>
+      </c>
+      <c r="BL59">
+        <v>1760840.771958865</v>
+      </c>
+      <c r="BM59">
+        <v>173041.5885327041</v>
+      </c>
+      <c r="BN59">
         <v>177373634203.9454</v>
       </c>
-      <c r="BL59">
+      <c r="BO59">
         <v>19767132152.6305</v>
       </c>
+      <c r="BP59">
+        <v>477184979030.394</v>
+      </c>
+      <c r="BQ59">
+        <v>46893988434.57349</v>
+      </c>
     </row>
-    <row r="60" spans="1:64">
+    <row r="60" spans="1:69">
       <c r="A60" s="1">
         <v>4609</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F60" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -12905,7 +13697,7 @@
         <v>-999</v>
       </c>
       <c r="AK60" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AL60">
         <v>-999</v>
@@ -12974,7 +13766,7 @@
         <v>16122483086222.3</v>
       </c>
       <c r="BH60" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="BI60">
         <v>9949199.456461726</v>
@@ -12983,30 +13775,45 @@
         <v>499393.9785657619</v>
       </c>
       <c r="BK60">
+        <v>25926029.37742728</v>
+      </c>
+      <c r="BL60">
+        <v>25926029.37742728</v>
+      </c>
+      <c r="BM60">
+        <v>1305789.984427683</v>
+      </c>
+      <c r="BN60">
         <v>1099386539939.021</v>
       </c>
-      <c r="BL60">
+      <c r="BO60">
         <v>55183034631.51669</v>
       </c>
+      <c r="BP60">
+        <v>2864826246205.714</v>
+      </c>
+      <c r="BQ60">
+        <v>144289793279.259</v>
+      </c>
     </row>
-    <row r="61" spans="1:64">
+    <row r="61" spans="1:69">
       <c r="A61" s="1">
         <v>4610</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F61" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -13099,7 +13906,7 @@
         <v>-999</v>
       </c>
       <c r="AK61" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AL61">
         <v>-999</v>
@@ -13168,7 +13975,7 @@
         <v>36215614458861.5</v>
       </c>
       <c r="BH61" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="BI61">
         <v>13935998.95243283</v>
@@ -13176,31 +13983,37 @@
       <c r="BJ61">
         <v>664906.9542912049</v>
       </c>
-      <c r="BK61">
+      <c r="BM61">
+        <v>714190.2786621613</v>
+      </c>
+      <c r="BN61">
         <v>2735462394375.659</v>
       </c>
-      <c r="BL61">
+      <c r="BO61">
         <v>130512923790.4349</v>
       </c>
+      <c r="BQ61">
+        <v>140186624322.899</v>
+      </c>
     </row>
-    <row r="62" spans="1:64">
+    <row r="62" spans="1:69">
       <c r="A62" s="1">
         <v>4611</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F62" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -13293,7 +14106,7 @@
         <v>-999</v>
       </c>
       <c r="AK62" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AL62">
         <v>-999</v>
@@ -13362,7 +14175,7 @@
         <v>22605612373867.1</v>
       </c>
       <c r="BH62" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="BI62">
         <v>5146527.905046584</v>
@@ -13370,31 +14183,37 @@
       <c r="BJ62">
         <v>336026.450923968</v>
       </c>
-      <c r="BK62">
+      <c r="BM62">
+        <v>264286.618661481</v>
+      </c>
+      <c r="BN62">
         <v>1912984030577.134</v>
       </c>
-      <c r="BL62">
+      <c r="BO62">
         <v>124902312069.2169</v>
       </c>
+      <c r="BQ62">
+        <v>98236343088.48958</v>
+      </c>
     </row>
-    <row r="63" spans="1:64">
+    <row r="63" spans="1:69">
       <c r="A63" s="1">
         <v>4612</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F63" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -13487,7 +14306,7 @@
         <v>-999</v>
       </c>
       <c r="AK63" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AL63">
         <v>-999</v>
@@ -13556,7 +14375,7 @@
         <v>8530082355747.48</v>
       </c>
       <c r="BH63" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="BI63">
         <v>5727630.569743632</v>
@@ -13565,30 +14384,45 @@
         <v>331325.3472567167</v>
       </c>
       <c r="BK63">
+        <v>14870898.87764625</v>
+      </c>
+      <c r="BL63">
+        <v>14870898.87764625</v>
+      </c>
+      <c r="BM63">
+        <v>846286.9646073629</v>
+      </c>
+      <c r="BN63">
         <v>571126042881.2249</v>
       </c>
-      <c r="BL63">
+      <c r="BO63">
         <v>33037838628.17223</v>
       </c>
+      <c r="BP63">
+        <v>1482839636156.406</v>
+      </c>
+      <c r="BQ63">
+        <v>84386819183.38185</v>
+      </c>
     </row>
-    <row r="64" spans="1:64">
+    <row r="64" spans="1:69">
       <c r="A64" s="1">
         <v>4656</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -13681,7 +14515,7 @@
         <v>300</v>
       </c>
       <c r="AK64" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AL64">
         <v>-999</v>
@@ -13750,7 +14584,7 @@
         <v>72402482931127.2</v>
       </c>
       <c r="BH64" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="BI64">
         <v>586492053.7263428</v>
@@ -13759,10 +14593,25 @@
         <v>7862993.280595555</v>
       </c>
       <c r="BK64">
+        <v>38559612.20461458</v>
+      </c>
+      <c r="BL64">
+        <v>38559612.20461458</v>
+      </c>
+      <c r="BM64">
+        <v>1100344.623762594</v>
+      </c>
+      <c r="BN64">
         <v>2827102836100.313</v>
       </c>
-      <c r="BL64">
+      <c r="BO64">
         <v>37902458290.05159</v>
+      </c>
+      <c r="BP64">
+        <v>185871212286.6359</v>
+      </c>
+      <c r="BQ64">
+        <v>5304057210.600255</v>
       </c>
     </row>
   </sheetData>
